--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H2">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>28.65052219268</v>
+        <v>3.168837049880334</v>
       </c>
       <c r="R2">
-        <v>257.85469973412</v>
+        <v>28.519533448923</v>
       </c>
       <c r="S2">
-        <v>0.01075069924597195</v>
+        <v>0.001648468408167481</v>
       </c>
       <c r="T2">
-        <v>0.01075069924597194</v>
+        <v>0.001648468408167481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H3">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>1399.994181674777</v>
+        <v>787.0593483903669</v>
       </c>
       <c r="R3">
-        <v>12599.94763507299</v>
+        <v>7083.534135513303</v>
       </c>
       <c r="S3">
-        <v>0.5253278209756868</v>
+        <v>0.4094380527466375</v>
       </c>
       <c r="T3">
-        <v>0.5253278209756866</v>
+        <v>0.4094380527466375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H4">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>205.006609713703</v>
+        <v>115.252170879713</v>
       </c>
       <c r="R4">
-        <v>1845.059487423327</v>
+        <v>1037.269537917417</v>
       </c>
       <c r="S4">
-        <v>0.07692580224703441</v>
+        <v>0.05995561137329598</v>
       </c>
       <c r="T4">
-        <v>0.07692580224703439</v>
+        <v>0.05995561137329598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>8.412257341733332</v>
+        <v>1.655002538187778</v>
       </c>
       <c r="R5">
-        <v>75.71031607559999</v>
+        <v>14.89502284369</v>
       </c>
       <c r="S5">
-        <v>0.003156579417732242</v>
+        <v>0.0008609528848264931</v>
       </c>
       <c r="T5">
-        <v>0.003156579417732241</v>
+        <v>0.000860952884826493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>411.0609661483433</v>
@@ -818,10 +818,10 @@
         <v>3699.54869533509</v>
       </c>
       <c r="S6">
-        <v>0.1542447564864478</v>
+        <v>0.2138390222848271</v>
       </c>
       <c r="T6">
-        <v>0.1542447564864478</v>
+        <v>0.2138390222848271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>60.19326091405667</v>
+        <v>60.19326091405666</v>
       </c>
       <c r="R7">
-        <v>541.7393482265101</v>
+        <v>541.7393482265099</v>
       </c>
       <c r="S7">
-        <v>0.0225866614356745</v>
+        <v>0.03131328226711815</v>
       </c>
       <c r="T7">
-        <v>0.02258666143567449</v>
+        <v>0.03131328226711815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>9.675100024573332</v>
+        <v>1.903450458945444</v>
       </c>
       <c r="R8">
-        <v>87.07590022116</v>
+        <v>17.131054130509</v>
       </c>
       <c r="S8">
-        <v>0.003630443097663977</v>
+        <v>0.0009901985803283738</v>
       </c>
       <c r="T8">
-        <v>0.003630443097663976</v>
+        <v>0.0009901985803283735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>472.7691750408943</v>
@@ -1004,10 +1004,10 @@
         <v>4254.922575368049</v>
       </c>
       <c r="S9">
-        <v>0.1773998805135038</v>
+        <v>0.2459403993145521</v>
       </c>
       <c r="T9">
-        <v>0.1773998805135038</v>
+        <v>0.245940399314552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
-        <v>69.22943467974567</v>
+        <v>69.22943467974565</v>
       </c>
       <c r="R10">
-        <v>623.0649121177111</v>
+        <v>623.0649121177109</v>
       </c>
       <c r="S10">
-        <v>0.02597735658028461</v>
+        <v>0.03601401214024703</v>
       </c>
       <c r="T10">
-        <v>0.0259773565802846</v>
+        <v>0.03601401214024703</v>
       </c>
     </row>
   </sheetData>
